--- a/Screenshots/TestData.xlsx
+++ b/Screenshots/TestData.xlsx
@@ -11,15 +11,73 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Hello" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Login unsuccessful</t>
+  </si>
+  <si>
+    <t>afgkjsaf</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>rahulshetty</t>
+  </si>
+  <si>
+    <t>sfhas</t>
+  </si>
+  <si>
+    <t>!@#%</t>
+  </si>
+  <si>
+    <t>agskhaf</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>fahkjsafhka</t>
+  </si>
+  <si>
+    <t>fsahfka</t>
+  </si>
+  <si>
+    <t>jahidul.ij@gmail.com</t>
+  </si>
+  <si>
+    <t>Therap321#</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -122,22 +180,38 @@
       <family val="3"/>
       <sz val="10"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+      <u val="single"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -161,6 +235,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,148 +507,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0"/>
-  <cols>
-    <col width="17.1094" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>new value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Login unsuccessful</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>afgkjsaf</t>
-        </is>
-      </c>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Login unsuccessful</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>rahulshetty</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="inlineStr">
-        <is>
-          <t>sfhas</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Login unsuccessful</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>!@#%</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Login unsuccessful</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>rahulshetty</t>
-        </is>
-      </c>
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Login successful</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0"?><worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><sheetPr><outlinePr summaryBelow="0" summaryRight="0" /><pageSetUpPr /></sheetPr><dimension ref="A1:D7" /><sheetViews><sheetView workbookViewId="0"><selection activeCell="B3" activeCellId="0" sqref="B3" /></sheetView></sheetViews><sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0" /><cols><col min="1" max="1" width="18.332" customWidth="1" bestFit="1" /></cols><sheetData ><row r="1" ><c r="A1" s="16" t="s" ><v >0</v></c><c r="B1" s="16" t="s" ><v >1</v></c></row><row r="2" ><c r="A2" s="19" t="s" ><v >16</v></c><c r="B2" t="s" ><v >17</v></c></row><row r="3" ><c r="A3" s="17" t="s" ><v >6</v></c><c r="B3" s="17" t="s" ><v >7</v></c></row><row r="4" ><c r="A4" s="17" t="s" ><v >8</v></c><c r="B4" s="17" t="s" ><v >9</v></c></row><row r="5" ><c r="A5" s="17" t="s" ><v >10</v></c><c r="B5" s="17" t="s" ><v >7</v></c></row><row r="6" ><c r="A6" s="17" t="s" ><v >11</v></c><c r="B6" s="17" t="s" ><v >7</v></c></row><row r="7" ><c r="A7" s="0" t="s" ><v >14</v></c><c r="B7" s="0" t="s" ><v >15</v></c></row></sheetData><hyperlinks><hyperlink ref="A2" display="jahidul.ij@gmail.com" r:id="rId1" /></hyperlinks><pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5" /></worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,7 +522,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -604,7 +540,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -622,7 +558,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
